--- a/src/api-guides/ERP-integration/payment-request-accounting-extract-invoice.xlsx
+++ b/src/api-guides/ERP-integration/payment-request-accounting-extract-invoice.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FCDF49A-853E-4817-99E5-F361BA8C81EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{478CAC17-8310-45AB-B4C8-215B5BD3EA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Header_Data" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="594">
   <si>
     <t>Sno</t>
   </si>
@@ -5656,6 +5656,69 @@
   </si>
   <si>
     <t>FI equivalent is amountShippingTotal</t>
+  </si>
+  <si>
+    <t>FI equivalent is policyName</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The name of the policy that applies to this Invoice
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Data Type: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String</t>
+    </r>
+  </si>
+  <si>
+    <t>FI equivalent is vendorTaxId</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This is the tax identification number of the vendor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Data type: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alphanumeric</t>
+    </r>
+  </si>
+  <si>
+    <t>Up to 15 chars</t>
   </si>
 </sst>
 </file>
@@ -5756,7 +5819,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5797,6 +5860,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6084,14 +6151,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" customWidth="1"/>
+    <col min="6" max="6" width="29.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6111,7 +6178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -6127,7 +6194,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -6143,7 +6210,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -6159,7 +6226,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -6175,7 +6242,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -6202,24 +6269,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFAF4C6-DB24-4622-B041-4600BA11E896}">
   <dimension ref="A1:J275"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="F158" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="J162" sqref="J162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="44.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="44.54296875" customWidth="1"/>
     <col min="4" max="4" width="73" style="9" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1"/>
-    <col min="8" max="8" width="64.28515625" customWidth="1"/>
-    <col min="9" max="9" width="54.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" customWidth="1"/>
+    <col min="8" max="8" width="64.26953125" customWidth="1"/>
+    <col min="9" max="9" width="54.26953125" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6251,7 +6318,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -6275,7 +6342,7 @@
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
     </row>
-    <row r="3" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -6303,7 +6370,7 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -6322,12 +6389,18 @@
       <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="10"/>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>590</v>
+      </c>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -6359,7 +6432,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -6383,7 +6456,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -6415,7 +6488,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -6443,7 +6516,7 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -6471,7 +6544,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -6503,7 +6576,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -6535,7 +6608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -6563,7 +6636,7 @@
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -6591,7 +6664,7 @@
       </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -6615,7 +6688,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -6647,7 +6720,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -6679,7 +6752,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -6711,7 +6784,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -6743,7 +6816,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -6775,7 +6848,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -6807,7 +6880,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -6839,7 +6912,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -6871,7 +6944,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -6903,7 +6976,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -6935,7 +7008,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -6967,7 +7040,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -6999,7 +7072,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -7031,7 +7104,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -7063,7 +7136,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -7095,7 +7168,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -7127,7 +7200,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -7159,7 +7232,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -7191,7 +7264,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -7223,7 +7296,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -7255,7 +7328,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -7287,7 +7360,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -7319,7 +7392,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -7351,7 +7424,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -7383,7 +7456,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -7415,7 +7488,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -7447,7 +7520,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -7479,7 +7552,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -7511,7 +7584,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -7543,7 +7616,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -7575,7 +7648,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -7599,7 +7672,7 @@
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -7623,7 +7696,7 @@
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
     </row>
-    <row r="47" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -7647,7 +7720,7 @@
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
     </row>
-    <row r="48" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -7671,7 +7744,7 @@
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
     </row>
-    <row r="49" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -7695,7 +7768,7 @@
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
     </row>
-    <row r="50" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -7727,7 +7800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -7759,7 +7832,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -7791,7 +7864,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -7819,7 +7892,7 @@
       </c>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -7847,7 +7920,7 @@
       </c>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -7871,7 +7944,7 @@
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
     </row>
-    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -7895,7 +7968,7 @@
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
     </row>
-    <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -7919,7 +7992,7 @@
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
     </row>
-    <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -7943,7 +8016,7 @@
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
     </row>
-    <row r="59" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -7975,7 +8048,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -8007,7 +8080,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -8039,7 +8112,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -8071,7 +8144,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -8095,7 +8168,7 @@
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
     </row>
-    <row r="64" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -8119,7 +8192,7 @@
       <c r="I64" s="10"/>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -8143,7 +8216,7 @@
       <c r="I65" s="10"/>
       <c r="J65" s="10"/>
     </row>
-    <row r="66" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -8175,7 +8248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -8199,7 +8272,7 @@
       <c r="I67" s="10"/>
       <c r="J67" s="10"/>
     </row>
-    <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -8223,7 +8296,7 @@
       <c r="I68" s="10"/>
       <c r="J68" s="10"/>
     </row>
-    <row r="69" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -8255,7 +8328,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -8287,7 +8360,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -8319,7 +8392,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -8351,7 +8424,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -8383,7 +8456,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -8415,7 +8488,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -8447,7 +8520,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -8479,7 +8552,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -8511,7 +8584,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -8543,7 +8616,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -8575,7 +8648,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -8607,7 +8680,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -8639,7 +8712,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -8671,7 +8744,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -8703,7 +8776,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -8735,7 +8808,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -8767,7 +8840,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -8799,7 +8872,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -8831,7 +8904,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -8863,7 +8936,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -8895,7 +8968,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -8925,7 +8998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -8949,7 +9022,7 @@
       <c r="I91" s="10"/>
       <c r="J91" s="10"/>
     </row>
-    <row r="92" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -8981,7 +9054,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -9013,7 +9086,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -9045,7 +9118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -9077,7 +9150,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -9101,7 +9174,7 @@
       <c r="I96" s="10"/>
       <c r="J96" s="10"/>
     </row>
-    <row r="97" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -9133,7 +9206,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -9165,7 +9238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -9197,7 +9270,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -9221,7 +9294,7 @@
       <c r="I100" s="10"/>
       <c r="J100" s="10"/>
     </row>
-    <row r="101" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -9253,7 +9326,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -9285,7 +9358,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -9317,7 +9390,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -9349,7 +9422,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -9381,7 +9454,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -9413,7 +9486,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -9445,7 +9518,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -9477,7 +9550,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -9509,7 +9582,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -9541,7 +9614,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -9573,7 +9646,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -9605,7 +9678,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -9637,7 +9710,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -9669,7 +9742,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -9701,7 +9774,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -9733,7 +9806,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -9765,7 +9838,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -9797,7 +9870,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -9829,7 +9902,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -9861,7 +9934,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -9893,7 +9966,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -9925,7 +9998,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -9957,7 +10030,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -9989,7 +10062,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -10021,7 +10094,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -10053,7 +10126,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -10085,7 +10158,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -10109,7 +10182,7 @@
       <c r="I128" s="10"/>
       <c r="J128" s="10"/>
     </row>
-    <row r="129" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -10141,7 +10214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -10173,7 +10246,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -10205,7 +10278,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -10227,7 +10300,7 @@
       <c r="I132" s="10"/>
       <c r="J132" s="10"/>
     </row>
-    <row r="133" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -10255,7 +10328,7 @@
       </c>
       <c r="J133" s="2"/>
     </row>
-    <row r="134" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -10287,7 +10360,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -10319,7 +10392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -10351,7 +10424,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -10383,7 +10456,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -10415,7 +10488,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" ht="34.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -10447,7 +10520,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -10479,7 +10552,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -10511,7 +10584,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -10543,7 +10616,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -10575,7 +10648,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -10607,7 +10680,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -10639,7 +10712,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -10671,7 +10744,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -10703,7 +10776,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -10735,7 +10808,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -10767,7 +10840,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -10799,7 +10872,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -10831,7 +10904,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -10863,7 +10936,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -10895,7 +10968,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -10927,7 +11000,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -10959,7 +11032,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -10991,7 +11064,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -11023,7 +11096,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -11055,7 +11128,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -11087,7 +11160,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -11111,7 +11184,7 @@
       <c r="I160" s="10"/>
       <c r="J160" s="2"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -11135,7 +11208,7 @@
       <c r="I161" s="10"/>
       <c r="J161" s="2"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -11159,7 +11232,7 @@
       <c r="I162" s="10"/>
       <c r="J162" s="2"/>
     </row>
-    <row r="163" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -11183,7 +11256,7 @@
       <c r="I163" s="10"/>
       <c r="J163" s="2"/>
     </row>
-    <row r="164" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -11207,7 +11280,7 @@
       <c r="I164" s="10"/>
       <c r="J164" s="2"/>
     </row>
-    <row r="165" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -11239,7 +11312,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -11271,7 +11344,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -11303,7 +11376,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -11327,7 +11400,7 @@
       <c r="I168" s="10"/>
       <c r="J168" s="2"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -11351,7 +11424,7 @@
       <c r="I169" s="10"/>
       <c r="J169" s="2"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -11375,7 +11448,7 @@
       <c r="I170" s="10"/>
       <c r="J170" s="2"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -11399,7 +11472,7 @@
       <c r="I171" s="10"/>
       <c r="J171" s="2"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -11423,7 +11496,7 @@
       <c r="I172" s="10"/>
       <c r="J172" s="2"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -11447,7 +11520,7 @@
       <c r="I173" s="10"/>
       <c r="J173" s="2"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -11471,7 +11544,7 @@
       <c r="I174" s="10"/>
       <c r="J174" s="2"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -11495,7 +11568,7 @@
       <c r="I175" s="10"/>
       <c r="J175" s="2"/>
     </row>
-    <row r="176" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -11527,7 +11600,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -11559,7 +11632,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -11583,7 +11656,7 @@
       <c r="I178" s="10"/>
       <c r="J178" s="2"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -11607,7 +11680,7 @@
       <c r="I179" s="10"/>
       <c r="J179" s="10"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -11631,7 +11704,7 @@
       <c r="I180" s="10"/>
       <c r="J180" s="10"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -11655,7 +11728,7 @@
       <c r="I181" s="10"/>
       <c r="J181" s="10"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -11679,7 +11752,7 @@
       <c r="I182" s="10"/>
       <c r="J182" s="10"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -11703,7 +11776,7 @@
       <c r="I183" s="10"/>
       <c r="J183" s="10"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -11727,7 +11800,7 @@
       <c r="I184" s="10"/>
       <c r="J184" s="2"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -11751,7 +11824,7 @@
       <c r="I185" s="10"/>
       <c r="J185" s="2"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -11775,7 +11848,7 @@
       <c r="I186" s="10"/>
       <c r="J186" s="2"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -11799,7 +11872,7 @@
       <c r="I187" s="10"/>
       <c r="J187" s="10"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -11823,7 +11896,7 @@
       <c r="I188" s="10"/>
       <c r="J188" s="10"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -11847,7 +11920,7 @@
       <c r="I189" s="10"/>
       <c r="J189" s="10"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -11871,7 +11944,7 @@
       <c r="I190" s="10"/>
       <c r="J190" s="10"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -11895,7 +11968,7 @@
       <c r="I191" s="10"/>
       <c r="J191" s="10"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -11919,7 +11992,7 @@
       <c r="I192" s="10"/>
       <c r="J192" s="10"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -11943,7 +12016,7 @@
       <c r="I193" s="10"/>
       <c r="J193" s="10"/>
     </row>
-    <row r="194" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -11967,7 +12040,7 @@
       <c r="I194" s="10"/>
       <c r="J194" s="10"/>
     </row>
-    <row r="195" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -11991,7 +12064,7 @@
       <c r="I195" s="10"/>
       <c r="J195" s="10"/>
     </row>
-    <row r="196" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -12015,7 +12088,7 @@
       <c r="I196" s="10"/>
       <c r="J196" s="10"/>
     </row>
-    <row r="197" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -12039,7 +12112,7 @@
       <c r="I197" s="10"/>
       <c r="J197" s="10"/>
     </row>
-    <row r="198" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -12063,7 +12136,7 @@
       <c r="I198" s="10"/>
       <c r="J198" s="10"/>
     </row>
-    <row r="199" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -12087,7 +12160,7 @@
       <c r="I199" s="10"/>
       <c r="J199" s="10"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -12107,7 +12180,7 @@
       <c r="I200" s="10"/>
       <c r="J200" s="10"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -12127,7 +12200,7 @@
       <c r="I201" s="10"/>
       <c r="J201" s="10"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -12147,7 +12220,7 @@
       <c r="I202" s="10"/>
       <c r="J202" s="10"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -12167,7 +12240,7 @@
       <c r="I203" s="10"/>
       <c r="J203" s="10"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -12187,7 +12260,7 @@
       <c r="I204" s="10"/>
       <c r="J204" s="10"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -12207,7 +12280,7 @@
       <c r="I205" s="10"/>
       <c r="J205" s="10"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -12227,7 +12300,7 @@
       <c r="I206" s="10"/>
       <c r="J206" s="10"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -12247,7 +12320,7 @@
       <c r="I207" s="10"/>
       <c r="J207" s="10"/>
     </row>
-    <row r="208" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -12271,7 +12344,7 @@
       <c r="I208" s="10"/>
       <c r="J208" s="10"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -12291,7 +12364,7 @@
       <c r="I209" s="10"/>
       <c r="J209" s="10"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -12311,7 +12384,7 @@
       <c r="I210" s="10"/>
       <c r="J210" s="10"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -12331,7 +12404,7 @@
       <c r="I211" s="10"/>
       <c r="J211" s="10"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -12351,7 +12424,7 @@
       <c r="I212" s="10"/>
       <c r="J212" s="10"/>
     </row>
-    <row r="213" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -12383,7 +12456,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -12407,7 +12480,7 @@
       <c r="I214" s="10"/>
       <c r="J214" s="10"/>
     </row>
-    <row r="215" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -12439,7 +12512,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -12463,7 +12536,7 @@
       <c r="I216" s="10"/>
       <c r="J216" s="10"/>
     </row>
-    <row r="217" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -12495,7 +12568,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="218" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -12519,7 +12592,7 @@
       <c r="I218" s="10"/>
       <c r="J218" s="10"/>
     </row>
-    <row r="219" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -12551,7 +12624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="220" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -12575,7 +12648,7 @@
       <c r="I220" s="10"/>
       <c r="J220" s="10"/>
     </row>
-    <row r="221" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -12599,7 +12672,7 @@
       <c r="I221" s="10"/>
       <c r="J221" s="10"/>
     </row>
-    <row r="222" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -12623,7 +12696,7 @@
       <c r="I222" s="10"/>
       <c r="J222" s="10"/>
     </row>
-    <row r="223" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -12647,7 +12720,7 @@
       <c r="I223" s="10"/>
       <c r="J223" s="10"/>
     </row>
-    <row r="224" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -12671,7 +12744,7 @@
       <c r="I224" s="10"/>
       <c r="J224" s="10"/>
     </row>
-    <row r="225" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -12695,7 +12768,7 @@
       <c r="I225" s="10"/>
       <c r="J225" s="10"/>
     </row>
-    <row r="226" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -12717,7 +12790,7 @@
       <c r="I226" s="10"/>
       <c r="J226" s="10"/>
     </row>
-    <row r="227" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -12739,7 +12812,7 @@
       <c r="I227" s="10"/>
       <c r="J227" s="10"/>
     </row>
-    <row r="228" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -12763,7 +12836,7 @@
       <c r="I228" s="10"/>
       <c r="J228" s="10"/>
     </row>
-    <row r="229" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -12787,7 +12860,7 @@
       <c r="I229" s="10"/>
       <c r="J229" s="10"/>
     </row>
-    <row r="230" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -12809,7 +12882,7 @@
       <c r="I230" s="10"/>
       <c r="J230" s="10"/>
     </row>
-    <row r="231" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -12833,7 +12906,7 @@
       <c r="I231" s="10"/>
       <c r="J231" s="10"/>
     </row>
-    <row r="232" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -12857,7 +12930,7 @@
       <c r="I232" s="10"/>
       <c r="J232" s="2"/>
     </row>
-    <row r="233" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -12881,7 +12954,7 @@
       <c r="I233" s="10"/>
       <c r="J233" s="10"/>
     </row>
-    <row r="234" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -12905,7 +12978,7 @@
       <c r="I234" s="10"/>
       <c r="J234" s="2"/>
     </row>
-    <row r="235" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -12929,7 +13002,7 @@
       <c r="I235" s="10"/>
       <c r="J235" s="10"/>
     </row>
-    <row r="236" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -12953,7 +13026,7 @@
       <c r="I236" s="10"/>
       <c r="J236" s="2"/>
     </row>
-    <row r="237" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -12977,7 +13050,7 @@
       <c r="I237" s="10"/>
       <c r="J237" s="10"/>
     </row>
-    <row r="238" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -13001,7 +13074,7 @@
       <c r="I238" s="10"/>
       <c r="J238" s="2"/>
     </row>
-    <row r="239" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -13025,7 +13098,7 @@
       <c r="I239" s="10"/>
       <c r="J239" s="10"/>
     </row>
-    <row r="240" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -13049,7 +13122,7 @@
       <c r="I240" s="10"/>
       <c r="J240" s="10"/>
     </row>
-    <row r="241" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -13073,7 +13146,7 @@
       <c r="I241" s="10"/>
       <c r="J241" s="10"/>
     </row>
-    <row r="242" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -13097,7 +13170,7 @@
       <c r="I242" s="10"/>
       <c r="J242" s="10"/>
     </row>
-    <row r="243" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A243" s="2">
         <v>242</v>
       </c>
@@ -13121,7 +13194,7 @@
       <c r="I243" s="10"/>
       <c r="J243" s="10"/>
     </row>
-    <row r="244" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A244" s="2">
         <v>243</v>
       </c>
@@ -13145,7 +13218,7 @@
       <c r="I244" s="10"/>
       <c r="J244" s="10"/>
     </row>
-    <row r="245" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A245" s="2">
         <v>244</v>
       </c>
@@ -13169,7 +13242,7 @@
       <c r="I245" s="10"/>
       <c r="J245" s="10"/>
     </row>
-    <row r="246" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -13188,12 +13261,20 @@
       <c r="F246" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G246" s="2"/>
-      <c r="H246" s="2"/>
-      <c r="I246" s="10"/>
-      <c r="J246" s="10"/>
-    </row>
-    <row r="247" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="G246" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H246" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="I246" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="J246" s="10" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A247" s="2">
         <v>246</v>
       </c>
@@ -13214,10 +13295,10 @@
       </c>
       <c r="G247" s="2"/>
       <c r="H247" s="2"/>
-      <c r="I247" s="10"/>
+      <c r="I247" s="15"/>
       <c r="J247" s="10"/>
     </row>
-    <row r="248" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A248" s="2">
         <v>247</v>
       </c>
@@ -13241,7 +13322,7 @@
       <c r="I248" s="10"/>
       <c r="J248" s="10"/>
     </row>
-    <row r="249" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A249" s="2">
         <v>248</v>
       </c>
@@ -13265,7 +13346,7 @@
       <c r="I249" s="10"/>
       <c r="J249" s="10"/>
     </row>
-    <row r="250" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -13289,7 +13370,7 @@
       <c r="I250" s="10"/>
       <c r="J250" s="10"/>
     </row>
-    <row r="251" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -13311,7 +13392,7 @@
       <c r="I251" s="10"/>
       <c r="J251" s="10"/>
     </row>
-    <row r="252" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -13333,7 +13414,7 @@
       <c r="I252" s="10"/>
       <c r="J252" s="10"/>
     </row>
-    <row r="253" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A253" s="2">
         <v>252</v>
       </c>
@@ -13357,7 +13438,7 @@
       <c r="I253" s="10"/>
       <c r="J253" s="10"/>
     </row>
-    <row r="254" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -13381,7 +13462,7 @@
       <c r="I254" s="10"/>
       <c r="J254" s="10"/>
     </row>
-    <row r="255" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -13403,7 +13484,7 @@
       <c r="I255" s="10"/>
       <c r="J255" s="10"/>
     </row>
-    <row r="256" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -13427,7 +13508,7 @@
       <c r="I256" s="10"/>
       <c r="J256" s="10"/>
     </row>
-    <row r="257" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -13459,7 +13540,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="258" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -13479,7 +13560,7 @@
       </c>
       <c r="J258" s="2"/>
     </row>
-    <row r="259" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -13499,7 +13580,7 @@
       </c>
       <c r="J259" s="2"/>
     </row>
-    <row r="260" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -13519,7 +13600,7 @@
       </c>
       <c r="J260" s="2"/>
     </row>
-    <row r="261" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -13541,7 +13622,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="262" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -13563,7 +13644,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -13585,7 +13666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -13607,7 +13688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -13629,7 +13710,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -13651,7 +13732,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="267" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -13673,7 +13754,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="268" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -13693,7 +13774,7 @@
       </c>
       <c r="J268" s="2"/>
     </row>
-    <row r="269" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -13715,7 +13796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -13735,7 +13816,7 @@
       </c>
       <c r="J270" s="10"/>
     </row>
-    <row r="271" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -13755,7 +13836,7 @@
       </c>
       <c r="J271" s="10"/>
     </row>
-    <row r="272" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -13777,7 +13858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A273" s="2">
         <v>272</v>
       </c>
@@ -13799,7 +13880,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="274" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A274" s="2">
         <v>273</v>
       </c>
@@ -13821,7 +13902,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="275" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A275" s="2">
         <v>274</v>
       </c>
